--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="5640" windowWidth="23460" windowHeight="10248" tabRatio="377"/>
+    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -408,9 +403,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -629,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,59 +871,59 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.88671875" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:12" ht="28">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="25" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -938,77 +933,79 @@
       <c r="C2" s="4">
         <v>376</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>42289</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>6.25E-2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="29">
+        <v>42345</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>1000</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15">
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1031,566 +1028,566 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:19" ht="28">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>376</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>649016</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>0.61</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>376</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>649016</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>0.61</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>376</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>649016</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0.61</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>376</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>649016</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.61</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>376</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>2818</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>117</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>376</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>2818</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>700</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>376</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>2818</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>1.0760000000000001</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>376</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>2818</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>376</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>9082</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>376</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>170</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>376</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>50156</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>376</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <v>376</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
+    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Ref Des</t>
   </si>
@@ -186,6 +191,9 @@
   </si>
   <si>
     <t>N00145</t>
+  </si>
+  <si>
+    <t>OL000353</t>
   </si>
 </sst>
 </file>
@@ -870,22 +878,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
@@ -923,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -961,51 +969,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1024,23 +1032,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1113,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1152,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1183,7 +1191,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1230,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1243,7 +1251,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1285,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1319,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1345,7 +1353,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1387,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1395,7 +1403,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1433,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1441,7 +1449,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1479,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1487,7 +1495,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1525,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1533,7 +1541,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1554,9 @@
       <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="9">
         <v>376</v>
       </c>
@@ -1561,7 +1571,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1577,13 +1587,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10840" yWindow="3080" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -882,18 +877,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
@@ -931,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="25" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -969,51 +964,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1033,22 +1028,22 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1108,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1147,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1191,7 +1186,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1230,7 +1225,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1251,7 +1246,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="16">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>19</v>
@@ -1285,7 +1280,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1314,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1348,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1387,7 +1382,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1403,7 +1398,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1433,7 +1428,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1449,7 +1444,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1474,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1495,7 +1490,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1525,7 +1520,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1541,7 +1536,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1566,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1587,13 +1582,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>OL000353</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +471,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -1027,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1509,11 +1515,13 @@
       <c r="F16" s="20">
         <v>50156</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="G16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="3080" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10840" yWindow="3080" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -946,13 +946,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="19">
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="F2" s="5">
-        <v>6.25E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="G2" s="29">
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>29</v>
@@ -1033,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="3080" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
+    <workbookView xWindow="49920" yWindow="680" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -32,6 +37,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -364,10 +372,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -476,7 +494,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -491,6 +509,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -505,6 +528,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -877,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -894,7 +922,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
@@ -932,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -969,63 +997,66 @@
       <c r="L2" s="26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="25">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.833333333333336</v>
+      </c>
+      <c r="N2" s="25">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.708333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1037,7 +1068,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1049,7 +1080,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1145,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1184,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1192,7 +1223,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1231,7 +1262,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1252,7 +1283,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1286,7 +1317,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1320,7 +1351,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1354,7 +1385,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1419,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1404,7 +1435,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -1434,7 +1465,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1450,7 +1481,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1480,7 +1511,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1496,7 +1527,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1528,7 +1559,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1544,7 +1575,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1605,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1590,13 +1621,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1605,10 +1636,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>